--- a/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3373</v>
+        <v>2677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14646</v>
+        <v>13844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02581192996348164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01235639110269425</v>
+        <v>0.00980715208488395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0536453856211544</v>
+        <v>0.05070953983136214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2908</v>
+        <v>3177</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14523</v>
+        <v>14485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02786468146338193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01114712166590917</v>
+        <v>0.01218178022210578</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05567887431820481</v>
+        <v>0.05553349580834324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>14315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8333</v>
+        <v>8000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24095</v>
+        <v>23187</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02681490412771639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0156085372888164</v>
+        <v>0.01498479967311645</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0451340551515586</v>
+        <v>0.04343387325686901</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258364</v>
+        <v>259166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269637</v>
+        <v>270333</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9741880700365183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9463546143788456</v>
+        <v>0.9492904601686378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9876436088973057</v>
+        <v>0.990192847915116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -836,19 +836,19 @@
         <v>253570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246315</v>
+        <v>246353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257930</v>
+        <v>257661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9721353185366181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.944321125681795</v>
+        <v>0.9444665041916566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9888528783340909</v>
+        <v>0.9878182197778942</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>502</v>
@@ -857,19 +857,19 @@
         <v>519533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509753</v>
+        <v>510661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>525515</v>
+        <v>525848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9731850958722836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9548659448484415</v>
+        <v>0.956566126743131</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9843914627111836</v>
+        <v>0.9850152003268835</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10154</v>
+        <v>9925</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27070</v>
+        <v>26597</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03453872098169667</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02059309541918468</v>
+        <v>0.02012904421405366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05490128631148621</v>
+        <v>0.05394029595675365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>18893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11617</v>
+        <v>10923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28424</v>
+        <v>28583</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03748938614275536</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0230512291473201</v>
+        <v>0.0216750906605274</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05640157931367178</v>
+        <v>0.05671841126183182</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1003,19 +1003,19 @@
         <v>35923</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25660</v>
+        <v>26202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49352</v>
+        <v>49281</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03603014413829311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02573686030598626</v>
+        <v>0.02628006600284142</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04949923668705582</v>
+        <v>0.04942857741221171</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>476045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466005</v>
+        <v>466478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482921</v>
+        <v>483150</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9654612790183034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9450987136885138</v>
+        <v>0.9460597040432466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9794069045808155</v>
+        <v>0.9798709557859463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -1053,19 +1053,19 @@
         <v>485056</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>475525</v>
+        <v>475366</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492332</v>
+        <v>493026</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9625106138572447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9435984206863279</v>
+        <v>0.9432815887381676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9769487708526797</v>
+        <v>0.9783249093394726</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>929</v>
@@ -1074,19 +1074,19 @@
         <v>961101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947672</v>
+        <v>947743</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>971364</v>
+        <v>970822</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9639698558617069</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9505007633129439</v>
+        <v>0.9505714225877883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9742631396940136</v>
+        <v>0.9737199339971585</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4896</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10790</v>
+        <v>10761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01535432929234109</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006046920478482353</v>
+        <v>0.006039289949361144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03384041480670639</v>
+        <v>0.03375065189705186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6132</v>
+        <v>6841</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20588</v>
+        <v>20537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03679454442846334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01828264106735513</v>
+        <v>0.02039542498069488</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06138258120743424</v>
+        <v>0.06123016887642463</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>17237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10360</v>
+        <v>10113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26987</v>
+        <v>26724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02634587457248764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01583504763947365</v>
+        <v>0.01545734313795364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0412477418538681</v>
+        <v>0.04084665777737723</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>313950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308056</v>
+        <v>308085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316918</v>
+        <v>316920</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.984645670707659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9661595851932933</v>
+        <v>0.9662493481029486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9939530795215177</v>
+        <v>0.993960710050639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -1270,19 +1270,19 @@
         <v>323071</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314824</v>
+        <v>314875</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329280</v>
+        <v>328571</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9632054555715367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9386174187925661</v>
+        <v>0.9387698311235754</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.981717358932645</v>
+        <v>0.9796045750193051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -1291,19 +1291,19 @@
         <v>637021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627271</v>
+        <v>627534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643898</v>
+        <v>644145</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9736541254275124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9587522581461322</v>
+        <v>0.9591533422226227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9841649523605264</v>
+        <v>0.9845426568620463</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>7258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3124</v>
+        <v>2868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14956</v>
+        <v>14597</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02023591205485973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008709845694461631</v>
+        <v>0.007994928163288754</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04169860269545681</v>
+        <v>0.04069717001087841</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1416,19 +1416,19 @@
         <v>15638</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9172</v>
+        <v>9334</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23456</v>
+        <v>24148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04209862320766705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02469241698232217</v>
+        <v>0.02512818522124078</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0631453775242998</v>
+        <v>0.06500887194622657</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>22896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14999</v>
+        <v>15635</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33022</v>
+        <v>33816</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03135868057692796</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02054242836675567</v>
+        <v>0.02141411499473154</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04522840536624401</v>
+        <v>0.04631502033076271</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>351413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343715</v>
+        <v>344074</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355547</v>
+        <v>355803</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9797640879451402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9583013973045432</v>
+        <v>0.9593028299891215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9912901543055382</v>
+        <v>0.9920050718367113</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>367</v>
@@ -1487,19 +1487,19 @@
         <v>355818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348000</v>
+        <v>347308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362284</v>
+        <v>362122</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9579013767923329</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9368546224757001</v>
+        <v>0.9349911280537726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9753075830176776</v>
+        <v>0.9748718147787592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>722</v>
@@ -1508,19 +1508,19 @@
         <v>707231</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697105</v>
+        <v>696311</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715128</v>
+        <v>714492</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9686413194230721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9547715946337559</v>
+        <v>0.9536849796692373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9794575716332443</v>
+        <v>0.9785858850052684</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>3764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1159</v>
+        <v>891</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9973</v>
+        <v>9354</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01851387384007476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00569837502836497</v>
+        <v>0.004382837692749247</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04905186239835969</v>
+        <v>0.04600690534981346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3755</v>
+        <v>3986</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15281</v>
+        <v>16051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03991648660570588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01808210909159062</v>
+        <v>0.01919244598956719</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07358613690836766</v>
+        <v>0.07729238966469433</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1654,19 +1654,19 @@
         <v>12053</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6875</v>
+        <v>6360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20748</v>
+        <v>21163</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02932870801616865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01672775766146399</v>
+        <v>0.01547500987434826</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05048535138252461</v>
+        <v>0.05149353446238101</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>199544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193335</v>
+        <v>193954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202149</v>
+        <v>202417</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9814861261599253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9509481376016399</v>
+        <v>0.9539930946501863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.994301624971635</v>
+        <v>0.9956171623072507</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -1704,19 +1704,19 @@
         <v>199379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192387</v>
+        <v>191617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203913</v>
+        <v>203682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9600835133942941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9264138630916323</v>
+        <v>0.9227076103353055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9819178909084093</v>
+        <v>0.9808075540104328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>392</v>
@@ -1725,19 +1725,19 @@
         <v>398923</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390228</v>
+        <v>389813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404101</v>
+        <v>404616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9706712919838314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9495146486174744</v>
+        <v>0.948506465537619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9832722423385361</v>
+        <v>0.9845249901256518</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4988</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1896</v>
+        <v>1915</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10299</v>
+        <v>11912</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01842006435640257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006999787415409926</v>
+        <v>0.007072387113933125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03803050826736671</v>
+        <v>0.04398651690313379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1850,19 +1850,19 @@
         <v>11809</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6425</v>
+        <v>6404</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19945</v>
+        <v>19547</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04245598021780641</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02309948379385785</v>
+        <v>0.02302298973298519</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07170875552177076</v>
+        <v>0.07027757697377529</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1871,19 +1871,19 @@
         <v>16797</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10258</v>
+        <v>10299</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26872</v>
+        <v>26574</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03059855937451971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01868685320488559</v>
+        <v>0.01876064404244595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04895151632672878</v>
+        <v>0.04840857203355212</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>265823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260512</v>
+        <v>258899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268915</v>
+        <v>268896</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9815799356435975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.961969491732633</v>
+        <v>0.9560134830968662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.99300021258459</v>
+        <v>0.9929276128860669</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -1921,19 +1921,19 @@
         <v>266335</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258199</v>
+        <v>258597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271719</v>
+        <v>271740</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9575440197821936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9282912444782294</v>
+        <v>0.9297224230262248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9769005162061424</v>
+        <v>0.9769770102670149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>520</v>
@@ -1942,19 +1942,19 @@
         <v>532158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522083</v>
+        <v>522381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538697</v>
+        <v>538656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9694014406254803</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9510484836732711</v>
+        <v>0.951591427966448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9813131467951143</v>
+        <v>0.9812393559575541</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>19284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11599</v>
+        <v>11265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29428</v>
+        <v>30763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03135489013134891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01885963880282231</v>
+        <v>0.01831704312487471</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04784790618858706</v>
+        <v>0.05001815791561834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2067,19 +2067,19 @@
         <v>29617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20618</v>
+        <v>20073</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40548</v>
+        <v>40754</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04640548192753678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03230583425079971</v>
+        <v>0.03145148774902943</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06353327489289748</v>
+        <v>0.06385556020755853</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2088,19 +2088,19 @@
         <v>48901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38319</v>
+        <v>36322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65135</v>
+        <v>64178</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03901944593200715</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03057577203456713</v>
+        <v>0.02898272157128868</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05197285947683281</v>
+        <v>0.05120971314786937</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>595743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>585599</v>
+        <v>584264</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>603428</v>
+        <v>603762</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.968645109868651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.952152093811413</v>
+        <v>0.9499818420843817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9811403611971777</v>
+        <v>0.9816829568751253</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>589</v>
@@ -2138,19 +2138,19 @@
         <v>608602</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>597671</v>
+        <v>597465</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>617601</v>
+        <v>618146</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9535945180724632</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9364667251071033</v>
+        <v>0.9361444397924416</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9676941657492004</v>
+        <v>0.9685485122509709</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1169</v>
@@ -2159,19 +2159,19 @@
         <v>1204345</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1188111</v>
+        <v>1189068</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1214927</v>
+        <v>1216924</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9609805540679929</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9480271405231672</v>
+        <v>0.9487902868521306</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9694242279654328</v>
+        <v>0.9710172784287113</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>22328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14662</v>
+        <v>14109</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33223</v>
+        <v>32400</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03006022996573645</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01973995789542439</v>
+        <v>0.01899430018842469</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04472771596280485</v>
+        <v>0.04362070214196179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2284,19 +2284,19 @@
         <v>17617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10629</v>
+        <v>11144</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28452</v>
+        <v>28107</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02248430306383433</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01356620767474455</v>
+        <v>0.01422264085447891</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03631317545691914</v>
+        <v>0.03587250434375206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -2305,19 +2305,19 @@
         <v>39945</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28777</v>
+        <v>29378</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53885</v>
+        <v>53804</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02617117196391397</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01885449260527277</v>
+        <v>0.01924812555613682</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03530435647901351</v>
+        <v>0.03525154800880398</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>720449</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>709554</v>
+        <v>710377</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>728115</v>
+        <v>728668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9699397700342636</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9552722840371951</v>
+        <v>0.9563792978580382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9802600421045756</v>
+        <v>0.9810056998115756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>729</v>
@@ -2355,19 +2355,19 @@
         <v>765894</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>755059</v>
+        <v>755404</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>772882</v>
+        <v>772367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9775156969361657</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9636868245430809</v>
+        <v>0.9641274956562481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9864337923252555</v>
+        <v>0.9857773591455212</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1441</v>
@@ -2376,19 +2376,19 @@
         <v>1486343</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1472403</v>
+        <v>1472484</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1497511</v>
+        <v>1496910</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9738288280360861</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9646956435209864</v>
+        <v>0.964748451991196</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9811455073947271</v>
+        <v>0.9807518744438632</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>86595</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02643708143675029</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>122</v>
@@ -2501,19 +2501,19 @@
         <v>121472</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03594695301296968</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>207</v>
@@ -2522,19 +2522,19 @@
         <v>208067</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03126609310876499</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3188930</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3166300</v>
+        <v>3167982</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3205445</v>
+        <v>3204801</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9735629185632497</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9666543102900772</v>
+        <v>0.96716780516695</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9786049303045883</v>
+        <v>0.9784083282664747</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3175</v>
@@ -2572,19 +2572,19 @@
         <v>3257725</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3236024</v>
+        <v>3234919</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3277629</v>
+        <v>3279220</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9640530469870303</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9576310378981254</v>
+        <v>0.9573041322056717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.969943142025749</v>
+        <v>0.9704138853566143</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6303</v>
@@ -2593,19 +2593,19 @@
         <v>6446655</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6420425</v>
+        <v>6415753</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6473518</v>
+        <v>6475711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9687339068912351</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9647923969735738</v>
+        <v>0.9640903357783478</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9727706158603814</v>
+        <v>0.9731002261389261</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>18325</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10544</v>
+        <v>10854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30041</v>
+        <v>30674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06314465829627265</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03633173577225823</v>
+        <v>0.03740236558253666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1035177614164899</v>
+        <v>0.1056999098312537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2962,19 +2962,19 @@
         <v>18458</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12036</v>
+        <v>10984</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28881</v>
+        <v>28169</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06562130199858439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04279008034060884</v>
+        <v>0.03904842812247336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1026779033714758</v>
+        <v>0.1001453023935408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2983,19 +2983,19 @@
         <v>36783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25934</v>
+        <v>25717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52994</v>
+        <v>51995</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06436364385044741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04538100265110116</v>
+        <v>0.04500117132933686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09273146700828688</v>
+        <v>0.09098330287162262</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>271878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260162</v>
+        <v>259529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279659</v>
+        <v>279349</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9368553417037273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8964822385835106</v>
+        <v>0.8943000901687462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9636682642277418</v>
+        <v>0.9625976344174633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -3033,19 +3033,19 @@
         <v>262822</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252399</v>
+        <v>253111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269244</v>
+        <v>270296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9343786980014156</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8973220966285241</v>
+        <v>0.8998546976064591</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9572099196593912</v>
+        <v>0.9609515718775267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -3054,19 +3054,19 @@
         <v>534700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518489</v>
+        <v>519488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545549</v>
+        <v>545766</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9356363561495525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9072685329917122</v>
+        <v>0.909016697128377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9546189973488988</v>
+        <v>0.9549988286706631</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>26541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18246</v>
+        <v>17550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37247</v>
+        <v>37553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05250088493879986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03609204086735628</v>
+        <v>0.0347153985136826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07367933373276515</v>
+        <v>0.07428521675743013</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3179,19 +3179,19 @@
         <v>31596</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21666</v>
+        <v>22248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44298</v>
+        <v>44216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06044402531346468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04144719869055795</v>
+        <v>0.04256147642667184</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08474369963698797</v>
+        <v>0.08458584706076103</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -3200,19 +3200,19 @@
         <v>58137</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43808</v>
+        <v>44390</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75490</v>
+        <v>75410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05653890244885386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04260394499717455</v>
+        <v>0.0431705285322346</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07341590814796721</v>
+        <v>0.0733372058090889</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>478986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468280</v>
+        <v>467974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487281</v>
+        <v>487977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9474991150612001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9263206662672346</v>
+        <v>0.9257147832425699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9639079591326437</v>
+        <v>0.9652846014863175</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -3250,19 +3250,19 @@
         <v>491135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478433</v>
+        <v>478515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501065</v>
+        <v>500483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9395559746865353</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.915256300363012</v>
+        <v>0.9154141529392389</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9585528013094419</v>
+        <v>0.9574385235733281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>897</v>
@@ -3271,19 +3271,19 @@
         <v>970121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952768</v>
+        <v>952848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>984450</v>
+        <v>983868</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9434610975511462</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9265840918520328</v>
+        <v>0.9266627941909112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9573960550028257</v>
+        <v>0.9568294714677659</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>11994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5877</v>
+        <v>5948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22486</v>
+        <v>22636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03712134223094579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01818819028427399</v>
+        <v>0.01840905451095664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06959239032594551</v>
+        <v>0.07005687495379456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3396,19 +3396,19 @@
         <v>13654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8144</v>
+        <v>7538</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22539</v>
+        <v>22018</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04003991371062029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02388121080729461</v>
+        <v>0.02210458821453051</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0660919654497614</v>
+        <v>0.06456641160955051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3417,19 +3417,19 @@
         <v>25649</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16741</v>
+        <v>16397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38442</v>
+        <v>38522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03861996764523914</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02520787702467365</v>
+        <v>0.02468876300672683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.057883350041219</v>
+        <v>0.05800307230890582</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>311122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300630</v>
+        <v>300480</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317239</v>
+        <v>317168</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9628786577690542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9304076096740543</v>
+        <v>0.9299431250462055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.981811809715726</v>
+        <v>0.9815909454890435</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>304</v>
@@ -3467,19 +3467,19 @@
         <v>327366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318481</v>
+        <v>319002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332876</v>
+        <v>333482</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9599600862893797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9339080345502391</v>
+        <v>0.9354335883904495</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9761187891927053</v>
+        <v>0.9778954117854696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -3488,19 +3488,19 @@
         <v>638487</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>625694</v>
+        <v>625614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647395</v>
+        <v>647739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9613800323547609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9421166499587811</v>
+        <v>0.9419969276910943</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9747921229753264</v>
+        <v>0.9753112369932732</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>8340</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3137</v>
+        <v>3798</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17274</v>
+        <v>17523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02229974939069862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008389386544293751</v>
+        <v>0.01015570389771871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0461882317273813</v>
+        <v>0.04685486587157791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3613,19 +3613,19 @@
         <v>30761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21283</v>
+        <v>21395</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42195</v>
+        <v>42064</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0792869654220546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05485752990263323</v>
+        <v>0.05514527754899174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1087569058088797</v>
+        <v>0.1084193567695575</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -3634,19 +3634,19 @@
         <v>39101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28360</v>
+        <v>28068</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53790</v>
+        <v>52156</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0513165969524691</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03721981815207906</v>
+        <v>0.03683741291283588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07059463669473728</v>
+        <v>0.06844999872013846</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>365642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356708</v>
+        <v>356459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370845</v>
+        <v>370184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9777002506093013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9538117682726186</v>
+        <v>0.9531451341284226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9916106134557062</v>
+        <v>0.9898442961022837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -3684,19 +3684,19 @@
         <v>357213</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345779</v>
+        <v>345910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366691</v>
+        <v>366579</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9207130345779454</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8912430941911204</v>
+        <v>0.8915806432304425</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9451424700973668</v>
+        <v>0.9448547224510083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>677</v>
@@ -3705,19 +3705,19 @@
         <v>722855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708166</v>
+        <v>709800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733596</v>
+        <v>733888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9486834030475308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9294053633052627</v>
+        <v>0.9315500012798615</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9627801818479209</v>
+        <v>0.9631625870871641</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>17006</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9610</v>
+        <v>9734</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25991</v>
+        <v>26114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07998475126676791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04519849698131804</v>
+        <v>0.0457816611023162</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1222447630164452</v>
+        <v>0.1228203090184823</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3830,19 +3830,19 @@
         <v>15446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8799</v>
+        <v>8731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26382</v>
+        <v>25628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07034140535298586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04006952369507564</v>
+        <v>0.03976061510911492</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.120143082339099</v>
+        <v>0.1167056394303796</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3851,19 +3851,19 @@
         <v>32453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22130</v>
+        <v>21651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43700</v>
+        <v>44640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07508528878523152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05120321652082888</v>
+        <v>0.05009487491646092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1011086700968048</v>
+        <v>0.103283408481004</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>195612</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186627</v>
+        <v>186504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203008</v>
+        <v>202884</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9200152487332321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8777552369835548</v>
+        <v>0.8771796909815177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9548015030186821</v>
+        <v>0.9542183388976838</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>198</v>
@@ -3901,19 +3901,19 @@
         <v>204145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193209</v>
+        <v>193963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210792</v>
+        <v>210860</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9296585946470142</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8798569176609008</v>
+        <v>0.8832943605696202</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9599304763049242</v>
+        <v>0.960239384890885</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -3922,19 +3922,19 @@
         <v>399756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>388509</v>
+        <v>387569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>410079</v>
+        <v>410558</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9249147112147684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8988913299031949</v>
+        <v>0.896716591518996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9487967834791711</v>
+        <v>0.9499051250835391</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>14220</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7836</v>
+        <v>7763</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22861</v>
+        <v>24742</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05190040645648838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02860113882666136</v>
+        <v>0.02833520328246937</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08343908675853294</v>
+        <v>0.09030572163129104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -4047,19 +4047,19 @@
         <v>10845</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5711</v>
+        <v>5709</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18016</v>
+        <v>19488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03885178820132169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02046011754546731</v>
+        <v>0.02045076982754945</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06454237085698114</v>
+        <v>0.06981432515452178</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -4068,19 +4068,19 @@
         <v>25065</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16010</v>
+        <v>17245</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37535</v>
+        <v>38081</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04531524023276202</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02894539687395629</v>
+        <v>0.03117697417836827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06785950709723912</v>
+        <v>0.06884749792301148</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>259761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251120</v>
+        <v>249239</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266145</v>
+        <v>266218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9480995935435116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.916560913241467</v>
+        <v>0.9096942783687085</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9713988611733383</v>
+        <v>0.9716647967175304</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>257</v>
@@ -4118,19 +4118,19 @@
         <v>268295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261124</v>
+        <v>259652</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273429</v>
+        <v>273431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9611482117986783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9354576291430191</v>
+        <v>0.9301856748454778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9795398824545327</v>
+        <v>0.9795492301724501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>505</v>
@@ -4139,19 +4139,19 @@
         <v>528056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>515586</v>
+        <v>515040</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>537111</v>
+        <v>535876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.954684759767238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.932140492902761</v>
+        <v>0.9311525020769885</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9710546031260437</v>
+        <v>0.9688230258216317</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>23394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15074</v>
+        <v>14507</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35048</v>
+        <v>35760</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03541847553242813</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02282140615148275</v>
+        <v>0.02196326501607312</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05306121189077718</v>
+        <v>0.0541393806183724</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -4264,19 +4264,19 @@
         <v>36313</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24595</v>
+        <v>25390</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50441</v>
+        <v>50271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05233521777207972</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03544647488162414</v>
+        <v>0.03659221819108557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07269694632395489</v>
+        <v>0.07245233964477964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -4285,19 +4285,19 @@
         <v>59707</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45149</v>
+        <v>44425</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77930</v>
+        <v>75809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04408505027417833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03333554840993297</v>
+        <v>0.03280092863072637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05753945820062102</v>
+        <v>0.05597382990576914</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>637121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>625467</v>
+        <v>624755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645441</v>
+        <v>646008</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9645815244675718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9469387881092228</v>
+        <v>0.9458606193816282</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9771785938485172</v>
+        <v>0.9780367349839272</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>605</v>
@@ -4335,19 +4335,19 @@
         <v>657540</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>643412</v>
+        <v>643582</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>669258</v>
+        <v>668463</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9476647822279203</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9273030536760452</v>
+        <v>0.9275476603552205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9645535251183761</v>
+        <v>0.9634077818089144</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1201</v>
@@ -4356,19 +4356,19 @@
         <v>1294661</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1276438</v>
+        <v>1278559</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1309219</v>
+        <v>1309943</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9559149497258217</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9424605417993788</v>
+        <v>0.9440261700942306</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9666644515900665</v>
+        <v>0.9671990713692736</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>20443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11847</v>
+        <v>12851</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32855</v>
+        <v>33073</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02634866541367811</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01526958103563809</v>
+        <v>0.0165629979429201</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04234553208419881</v>
+        <v>0.0426259186090903</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4481,19 +4481,19 @@
         <v>33021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22543</v>
+        <v>23486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46241</v>
+        <v>48863</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04019517065769068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02744048378450402</v>
+        <v>0.0285884497978228</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0562874365053059</v>
+        <v>0.05947899689973937</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -4502,19 +4502,19 @@
         <v>53465</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39328</v>
+        <v>39614</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69821</v>
+        <v>69195</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03346972072404081</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02461975935987383</v>
+        <v>0.02479894302176703</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.043708791195018</v>
+        <v>0.04331691687593282</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>755438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>743026</v>
+        <v>742808</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764034</v>
+        <v>763030</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9736513345863219</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.957654467915801</v>
+        <v>0.9573740813909097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.984730418964362</v>
+        <v>0.9834370020570798</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>726</v>
@@ -4552,19 +4552,19 @@
         <v>788499</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>775279</v>
+        <v>772657</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>798977</v>
+        <v>798034</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9598048293423093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9437125634946943</v>
+        <v>0.940521003100261</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9725595162154961</v>
+        <v>0.9714115502021774</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1423</v>
@@ -4573,19 +4573,19 @@
         <v>1543937</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1527581</v>
+        <v>1528207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1558074</v>
+        <v>1557788</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9665302792759591</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9562912088049821</v>
+        <v>0.9566830831240671</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9753802406401261</v>
+        <v>0.9752010569782329</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>140263</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117808</v>
+        <v>116660</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>168504</v>
+        <v>168738</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0410628357868955</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0344888259280832</v>
+        <v>0.03415280071712933</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04933050139301037</v>
+        <v>0.04939892013606369</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>174</v>
@@ -4698,19 +4698,19 @@
         <v>190095</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>162488</v>
+        <v>166615</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>221623</v>
+        <v>224516</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05359156431791369</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04580846032075054</v>
+        <v>0.04697211446203831</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06247988093876546</v>
+        <v>0.06329534394806151</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>297</v>
@@ -4719,19 +4719,19 @@
         <v>330359</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>294701</v>
+        <v>293872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>367177</v>
+        <v>368372</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04744531372876407</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04232422446535741</v>
+        <v>0.04220513176260249</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05273303213355225</v>
+        <v>0.0529046607918035</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3275562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3247321</v>
+        <v>3247087</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3298017</v>
+        <v>3299165</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9589371642131045</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9506694986069897</v>
+        <v>0.9506010798639364</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9655111740719172</v>
+        <v>0.9658471992828709</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3114</v>
@@ -4769,19 +4769,19 @@
         <v>3357015</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3325487</v>
+        <v>3322594</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3384622</v>
+        <v>3380495</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9464084356820863</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9375201190612346</v>
+        <v>0.9367046560519385</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9541915396792495</v>
+        <v>0.9530278855379617</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6191</v>
@@ -4790,19 +4790,19 @@
         <v>6632575</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6595757</v>
+        <v>6594562</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6668233</v>
+        <v>6669062</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.952554686271236</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9472669678664478</v>
+        <v>0.9470953392081962</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9576757755346426</v>
+        <v>0.9577948682373975</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>8609</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3989</v>
+        <v>3996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16094</v>
+        <v>15368</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02930700500860564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01358056311697351</v>
+        <v>0.01360382658535579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05478569055119637</v>
+        <v>0.05231311579454154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5159,19 +5159,19 @@
         <v>23752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15580</v>
+        <v>14836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34707</v>
+        <v>34137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08227194694183718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05396552188276502</v>
+        <v>0.05138804539810867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1202186650549283</v>
+        <v>0.1182412910664609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -5180,19 +5180,19 @@
         <v>32361</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21330</v>
+        <v>22559</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45680</v>
+        <v>46269</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05555950748998224</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0366195022528811</v>
+        <v>0.03873107493554311</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07842604894008048</v>
+        <v>0.0794359687224168</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>285152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277667</v>
+        <v>278393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289772</v>
+        <v>289765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9706929949913944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9452143094488034</v>
+        <v>0.9476868842054585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9864194368830265</v>
+        <v>0.9863961734146444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -5230,19 +5230,19 @@
         <v>264951</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253996</v>
+        <v>254566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>273123</v>
+        <v>273867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9177280530581629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8797813349450715</v>
+        <v>0.8817587089335391</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9460344781172341</v>
+        <v>0.9486119546018913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>513</v>
@@ -5251,19 +5251,19 @@
         <v>550103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536784</v>
+        <v>536195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561134</v>
+        <v>559905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9444404925100177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9215739510599195</v>
+        <v>0.9205640312775832</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9633804977471189</v>
+        <v>0.9612689250644568</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>11148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5512</v>
+        <v>5836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19119</v>
+        <v>19956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02218207778174601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01096761558586224</v>
+        <v>0.0116128693636264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03804268332406394</v>
+        <v>0.03970766448513335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5376,19 +5376,19 @@
         <v>8574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3911</v>
+        <v>3931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16910</v>
+        <v>16084</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01639116811773551</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007476660225116442</v>
+        <v>0.007514369080193851</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03232678881465644</v>
+        <v>0.03074847537453636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -5397,19 +5397,19 @@
         <v>19722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12334</v>
+        <v>12425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31039</v>
+        <v>30551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01922872669436289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01202580987403959</v>
+        <v>0.01211380658110123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03026257559478244</v>
+        <v>0.02978700871929461</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>491427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483456</v>
+        <v>482619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497063</v>
+        <v>496739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.977817922218254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.961957316675933</v>
+        <v>0.960292335514866</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9890323844141373</v>
+        <v>0.9883871306363735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>476</v>
@@ -5447,19 +5447,19 @@
         <v>514510</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>506174</v>
+        <v>507000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519173</v>
+        <v>519153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9836088318822644</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9676732111853436</v>
+        <v>0.9692515246254638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9925233397748836</v>
+        <v>0.9924856309198062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -5468,19 +5468,19 @@
         <v>1005937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>994620</v>
+        <v>995108</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1013325</v>
+        <v>1013234</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9807712733056371</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9697374244052176</v>
+        <v>0.9702129912807055</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9879741901259604</v>
+        <v>0.9878861934188988</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>6039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2272</v>
+        <v>2753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12699</v>
+        <v>12815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01895687291678681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00713178362331115</v>
+        <v>0.008641374159969035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03986213811613444</v>
+        <v>0.04022772118557943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5593,19 +5593,19 @@
         <v>6410</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2186</v>
+        <v>2262</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13463</v>
+        <v>12612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01905947914971726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006500444862989089</v>
+        <v>0.006725465660483146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04003085614070952</v>
+        <v>0.03750200715309599</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5614,19 +5614,19 @@
         <v>12449</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6460</v>
+        <v>6896</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21278</v>
+        <v>20808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01900956610634171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009865010074531038</v>
+        <v>0.01052959315308574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03249111274424483</v>
+        <v>0.03177373953476798</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>312526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305866</v>
+        <v>305750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316293</v>
+        <v>315812</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9810431270832132</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9601378618838656</v>
+        <v>0.9597722788144206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9928682163766889</v>
+        <v>0.991358625840031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>326</v>
@@ -5664,19 +5664,19 @@
         <v>329899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322846</v>
+        <v>323697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334123</v>
+        <v>334047</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9809405208502827</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9599691438592893</v>
+        <v>0.9624979928469041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9934995551370109</v>
+        <v>0.9932745343395168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>655</v>
@@ -5685,19 +5685,19 @@
         <v>642425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633596</v>
+        <v>634066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648414</v>
+        <v>647978</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9809904338936583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9675088872557552</v>
+        <v>0.9682262604652321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.990134989925469</v>
+        <v>0.9894704068469143</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>16739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9639</v>
+        <v>9715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28642</v>
+        <v>26059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04524380624690921</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02605366062739186</v>
+        <v>0.02626029169400133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0774174956747954</v>
+        <v>0.07043734301514917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5810,19 +5810,19 @@
         <v>29898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18479</v>
+        <v>20324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43252</v>
+        <v>43909</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07720041369594365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04771356861556848</v>
+        <v>0.05247883272741715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1116797425973132</v>
+        <v>0.1133759120944889</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -5831,19 +5831,19 @@
         <v>46637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32898</v>
+        <v>33319</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62728</v>
+        <v>63309</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06158754989416781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04344399278268974</v>
+        <v>0.04400071117221423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08283740945227132</v>
+        <v>0.0836047284902544</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>353225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341322</v>
+        <v>343905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360325</v>
+        <v>360249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9547561937530908</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9225825043252043</v>
+        <v>0.9295626569848507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9739463393726077</v>
+        <v>0.9737397083059987</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5881,19 +5881,19 @@
         <v>357385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344031</v>
+        <v>343374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368804</v>
+        <v>366959</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9227995863040563</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8883202574026867</v>
+        <v>0.8866240879055111</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9522864313844311</v>
+        <v>0.9475211672725827</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>672</v>
@@ -5902,19 +5902,19 @@
         <v>710610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>694519</v>
+        <v>693938</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>724349</v>
+        <v>723928</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9384124501058322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9171625905477283</v>
+        <v>0.9163952715097456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9565560072173102</v>
+        <v>0.955999288827786</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>3033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8158</v>
+        <v>8019</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01435712451520621</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00445126130030123</v>
+        <v>0.004472774120677253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03862190161878393</v>
+        <v>0.03796310417728134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6027,19 +6027,19 @@
         <v>7098</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3071</v>
+        <v>3001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13340</v>
+        <v>13297</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03247240906843336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01404707967553894</v>
+        <v>0.0137313297813767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06103000963168626</v>
+        <v>0.06083211135605354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -6048,19 +6048,19 @@
         <v>10131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5031</v>
+        <v>4925</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17415</v>
+        <v>17326</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02356999565924713</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01170517920147972</v>
+        <v>0.01145944923603452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04051843428898994</v>
+        <v>0.0403111052885536</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>208188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203063</v>
+        <v>203202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210281</v>
+        <v>210276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9856428754847938</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9613780983812164</v>
+        <v>0.9620368958227181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955487386996987</v>
+        <v>0.9955272258793227</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>216</v>
@@ -6098,19 +6098,19 @@
         <v>211489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205247</v>
+        <v>205290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215516</v>
+        <v>215586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9675275909315666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9389699903683137</v>
+        <v>0.9391678886439465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.985952920324461</v>
+        <v>0.9862686702186233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>425</v>
@@ -6119,19 +6119,19 @@
         <v>419677</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>412393</v>
+        <v>412482</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424777</v>
+        <v>424883</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9764300043407529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9594815657110098</v>
+        <v>0.9596888947114462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9882948207985203</v>
+        <v>0.9885405507639653</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>8310</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3631</v>
+        <v>3698</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15441</v>
+        <v>14453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03158220934394894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01380064089976085</v>
+        <v>0.01405379716580817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0586839349458507</v>
+        <v>0.05492766149604459</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6244,19 +6244,19 @@
         <v>6520</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2414</v>
+        <v>2238</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13169</v>
+        <v>13573</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02387338534361632</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008837951559485671</v>
+        <v>0.008195917199392947</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04821694367996375</v>
+        <v>0.04969834288135679</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -6265,19 +6265,19 @@
         <v>14830</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8857</v>
+        <v>8382</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23679</v>
+        <v>24026</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02765597608238645</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01651701618924725</v>
+        <v>0.01563085931961626</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04415726064026286</v>
+        <v>0.04480561438841987</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>254813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247682</v>
+        <v>248670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259492</v>
+        <v>259425</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.968417790656051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9413160650541489</v>
+        <v>0.9450723385039558</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.986199359100239</v>
+        <v>0.9859462028341919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>257</v>
@@ -6315,19 +6315,19 @@
         <v>266595</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259946</v>
+        <v>259542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270701</v>
+        <v>270877</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9761266146563837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.951783056320036</v>
+        <v>0.950301657118641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9911620484405143</v>
+        <v>0.9918040828006069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -6336,19 +6336,19 @@
         <v>521408</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>512559</v>
+        <v>512212</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>527381</v>
+        <v>527856</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9723440239176135</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9558427393597372</v>
+        <v>0.9551943856115802</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9834829838107527</v>
+        <v>0.9843691406803837</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>25394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16839</v>
+        <v>16352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39730</v>
+        <v>36999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03867776089310346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02564805910152387</v>
+        <v>0.0249056243561293</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06051181235468417</v>
+        <v>0.05635342798845081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -6461,19 +6461,19 @@
         <v>34058</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23452</v>
+        <v>22597</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49236</v>
+        <v>47510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04926689629734388</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03392412243751747</v>
+        <v>0.03268780755692443</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07122346071955472</v>
+        <v>0.06872565725061193</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -6482,19 +6482,19 @@
         <v>59452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44734</v>
+        <v>43323</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76789</v>
+        <v>78012</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04410877690114354</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03318886224668167</v>
+        <v>0.03214250881370559</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05697160473101006</v>
+        <v>0.05787911899894906</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>631164</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>616828</v>
+        <v>619559</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>639719</v>
+        <v>640206</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9613222391068965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9394881876453158</v>
+        <v>0.9436465720115491</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9743519408984761</v>
+        <v>0.9750943756438707</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -6532,19 +6532,19 @@
         <v>657236</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>642058</v>
+        <v>643784</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>667842</v>
+        <v>668697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9507331037026561</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9287765392804452</v>
+        <v>0.9312743427493878</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9660758775624825</v>
+        <v>0.9673121924430753</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1175</v>
@@ -6553,19 +6553,19 @@
         <v>1288400</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1271063</v>
+        <v>1269840</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1303118</v>
+        <v>1304529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9558912230988564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.94302839526899</v>
+        <v>0.9421208810010513</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9668111377533184</v>
+        <v>0.9678574911862945</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>20498</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11577</v>
+        <v>11948</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31749</v>
+        <v>31237</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02632712092588851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01486911080585486</v>
+        <v>0.01534551527808215</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04077734982473546</v>
+        <v>0.04012016386740923</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -6678,19 +6678,19 @@
         <v>27427</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17983</v>
+        <v>17498</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39983</v>
+        <v>41854</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03319768147462789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0217673639912114</v>
+        <v>0.02118012628091478</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04839571374128779</v>
+        <v>0.0506603390667503</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -6699,19 +6699,19 @@
         <v>47925</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35815</v>
+        <v>34640</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66443</v>
+        <v>63523</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02986426404154952</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02231795291533278</v>
+        <v>0.02158570085155267</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04140388864837302</v>
+        <v>0.03958460400112004</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>758085</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>746834</v>
+        <v>747346</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767006</v>
+        <v>766635</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9736728790741115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9592226501752645</v>
+        <v>0.9598798361325913</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9851308891941457</v>
+        <v>0.9846544847219181</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>731</v>
@@ -6749,19 +6749,19 @@
         <v>798740</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>786184</v>
+        <v>784313</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>808184</v>
+        <v>808669</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9668023185253721</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9516042862587117</v>
+        <v>0.9493396609332497</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9782326360087885</v>
+        <v>0.9788198737190852</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -6770,19 +6770,19 @@
         <v>1556825</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1538307</v>
+        <v>1541227</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1568935</v>
+        <v>1570110</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9701357359584505</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9585961113516269</v>
+        <v>0.9604153959988799</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9776820470846672</v>
+        <v>0.9784142991484474</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>99770</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>81341</v>
+        <v>82287</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>122096</v>
+        <v>121686</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02939283219585396</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0239636136741377</v>
+        <v>0.02424248513943077</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03597046205924723</v>
+        <v>0.03584970607346078</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>125</v>
@@ -6895,19 +6895,19 @@
         <v>143737</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>116707</v>
+        <v>120638</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167002</v>
+        <v>170082</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04055174480053273</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03292580923295755</v>
+        <v>0.03403479737855798</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04711529565979443</v>
+        <v>0.04798415050855793</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>218</v>
@@ -6916,19 +6916,19 @@
         <v>243507</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>211968</v>
+        <v>213360</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>275584</v>
+        <v>279572</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03509305529201308</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03054788591089036</v>
+        <v>0.03074848681500247</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03971582929541085</v>
+        <v>0.04029057894786873</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3294580</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3272254</v>
+        <v>3272664</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3313009</v>
+        <v>3312063</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.970607167804146</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.964029537940753</v>
+        <v>0.9641502939265393</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9760363863258623</v>
+        <v>0.9757575148605693</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3213</v>
@@ -6966,19 +6966,19 @@
         <v>3400805</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3377540</v>
+        <v>3374460</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3427835</v>
+        <v>3423904</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9594482551994673</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9528847043402056</v>
+        <v>0.952015849491442</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9670741907670424</v>
+        <v>0.9659652026214419</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6351</v>
@@ -6987,19 +6987,19 @@
         <v>6695385</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6663308</v>
+        <v>6659320</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6726924</v>
+        <v>6725532</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9649069447079869</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.960284170704589</v>
+        <v>0.9597094210521311</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9694521140891096</v>
+        <v>0.9692515131849975</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>16529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9545</v>
+        <v>9940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26001</v>
+        <v>27238</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05183873478546261</v>
+        <v>0.05183873478546262</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0299349837425068</v>
+        <v>0.0311746041012078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08154698681984746</v>
+        <v>0.08542738084024433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -7356,19 +7356,19 @@
         <v>13547</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8525</v>
+        <v>9147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19848</v>
+        <v>19291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04286226699109972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02697287203858385</v>
+        <v>0.02893958474936905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06279936137230867</v>
+        <v>0.06103594736840551</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -7377,19 +7377,19 @@
         <v>30076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20425</v>
+        <v>22150</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41206</v>
+        <v>42483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04737018586321113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03217074638018064</v>
+        <v>0.03488692350291232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06490113692975251</v>
+        <v>0.06691171036402471</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>302316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292844</v>
+        <v>291607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309300</v>
+        <v>308905</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9481612652145373</v>
+        <v>0.9481612652145374</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9184530131801524</v>
+        <v>0.9145726191597553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9700650162574932</v>
+        <v>0.9688253958987922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>512</v>
@@ -7427,19 +7427,19 @@
         <v>302514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>296213</v>
+        <v>296770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307536</v>
+        <v>306914</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9571377330089001</v>
+        <v>0.9571377330089004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9372006386276912</v>
+        <v>0.9389640526315943</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9730271279614163</v>
+        <v>0.971060415250631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>825</v>
@@ -7448,19 +7448,19 @@
         <v>604830</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>593700</v>
+        <v>592423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>614481</v>
+        <v>612756</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.952629814136789</v>
+        <v>0.9526298141367888</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9350988630702476</v>
+        <v>0.9330882896359759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9678292536198198</v>
+        <v>0.9651130764970878</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>13388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7131</v>
+        <v>6683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24313</v>
+        <v>22782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02527587820637111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01346419376518555</v>
+        <v>0.0126166261545451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04590260900745036</v>
+        <v>0.04301202804337067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -7573,19 +7573,19 @@
         <v>17648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10664</v>
+        <v>11600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25690</v>
+        <v>27096</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03236853955855124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0195590350262396</v>
+        <v>0.02127590285180735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04711994452969005</v>
+        <v>0.04969730864371422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -7594,19 +7594,19 @@
         <v>31035</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20980</v>
+        <v>22424</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42764</v>
+        <v>43414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02887352567627335</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01951895789147455</v>
+        <v>0.02086235778657135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03978552967963576</v>
+        <v>0.04039016184953668</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>516272</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>505347</v>
+        <v>506878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>522529</v>
+        <v>522977</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9747241217936289</v>
+        <v>0.974724121793629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9540973909925499</v>
+        <v>0.9569879719566294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865358062348144</v>
+        <v>0.9873833738454548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>691</v>
@@ -7644,19 +7644,19 @@
         <v>527565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>519523</v>
+        <v>518117</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>534549</v>
+        <v>533613</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9676314604414487</v>
+        <v>0.9676314604414489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.95288005547031</v>
+        <v>0.9503026913562853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9804409649737605</v>
+        <v>0.9787240971481925</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1061</v>
@@ -7665,19 +7665,19 @@
         <v>1043838</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1032109</v>
+        <v>1031459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1053893</v>
+        <v>1052449</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9711264743237267</v>
+        <v>0.9711264743237266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9602144703203632</v>
+        <v>0.9596098381504632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9804810421085253</v>
+        <v>0.9791376422134288</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>34017</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25274</v>
+        <v>24500</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46323</v>
+        <v>45082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1076524625166646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07998263385595449</v>
+        <v>0.07753490083690207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1465941105680626</v>
+        <v>0.1426666572104143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -7790,19 +7790,19 @@
         <v>58456</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47641</v>
+        <v>48550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68682</v>
+        <v>69585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1640270177656728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1336797713252181</v>
+        <v>0.1362316959427543</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1927217139105779</v>
+        <v>0.1952546880764606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -7811,19 +7811,19 @@
         <v>92474</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79476</v>
+        <v>78937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108812</v>
+        <v>108775</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.137532881137851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.118202271080445</v>
+        <v>0.1173996832557564</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.161832602412315</v>
+        <v>0.1617778348582337</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>281976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>269670</v>
+        <v>270911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>290719</v>
+        <v>291493</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8923475374833354</v>
+        <v>0.8923475374833356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8534058894319375</v>
+        <v>0.8573333427895855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9200173661440455</v>
+        <v>0.9224650991630979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>428</v>
@@ -7861,19 +7861,19 @@
         <v>297925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>287699</v>
+        <v>286796</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308740</v>
+        <v>307831</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8359729822343273</v>
+        <v>0.8359729822343271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8072782860894221</v>
+        <v>0.8047453119235395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8663202286747819</v>
+        <v>0.8637683040572457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>742</v>
@@ -7882,19 +7882,19 @@
         <v>579901</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>563563</v>
+        <v>563600</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>592899</v>
+        <v>593438</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8624671188621491</v>
+        <v>0.862467118862149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.838167397587685</v>
+        <v>0.8382221651417668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8817977289195552</v>
+        <v>0.8826003167442438</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>23514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16020</v>
+        <v>16035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35808</v>
+        <v>35034</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06301601117845684</v>
+        <v>0.06301601117845683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04293205487709402</v>
+        <v>0.04297365635249482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09596217050780989</v>
+        <v>0.09388955298411263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -8007,19 +8007,19 @@
         <v>41477</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32791</v>
+        <v>32565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51488</v>
+        <v>52454</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09829564479931234</v>
+        <v>0.09829564479931237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07771007475225897</v>
+        <v>0.07717470060494626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1220211146535557</v>
+        <v>0.1243101561782862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -8028,19 +8028,19 @@
         <v>64991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53548</v>
+        <v>53833</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81060</v>
+        <v>80803</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0817388380624982</v>
+        <v>0.08173883806249818</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06734748230746351</v>
+        <v>0.06770542473083418</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1019489675968114</v>
+        <v>0.1016253033887813</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>349631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337337</v>
+        <v>338111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357125</v>
+        <v>357110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9369839888215433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9040378294921899</v>
+        <v>0.9061104470158872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9570679451229059</v>
+        <v>0.9570263436475052</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>516</v>
@@ -8078,19 +8078,19 @@
         <v>380484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>370473</v>
+        <v>369507</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>389170</v>
+        <v>389396</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9017043552006876</v>
+        <v>0.9017043552006877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8779788853464442</v>
+        <v>0.8756898438217139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9222899252477408</v>
+        <v>0.9228252993950538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>781</v>
@@ -8099,19 +8099,19 @@
         <v>730116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714047</v>
+        <v>714304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>741559</v>
+        <v>741274</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.918261161937502</v>
+        <v>0.9182611619375016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8980510324031887</v>
+        <v>0.8983746966112189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9326525176925367</v>
+        <v>0.9322945752691661</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>25722</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18779</v>
+        <v>19335</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33602</v>
+        <v>33997</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1250684865474301</v>
+        <v>0.12506848654743</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09130853177126105</v>
+        <v>0.09401117766557782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1633817101254316</v>
+        <v>0.165304738754748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -8224,19 +8224,19 @@
         <v>45620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38187</v>
+        <v>37837</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54048</v>
+        <v>54228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2007799354288613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1680638556350725</v>
+        <v>0.1665246256538805</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2378717223441427</v>
+        <v>0.238662940989652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -8245,19 +8245,19 @@
         <v>71342</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61526</v>
+        <v>61040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83353</v>
+        <v>83262</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1648087773046152</v>
+        <v>0.1648087773046151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1421309928417948</v>
+        <v>0.1410091865685137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1925553236195821</v>
+        <v>0.1923449547292133</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>179943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172063</v>
+        <v>171668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186886</v>
+        <v>186330</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8749315134525698</v>
+        <v>0.87493151345257</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8366182898745681</v>
+        <v>0.834695261245252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9086914682287388</v>
+        <v>0.905988822334422</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -8295,19 +8295,19 @@
         <v>181595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173167</v>
+        <v>172987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189028</v>
+        <v>189378</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7992200645711388</v>
+        <v>0.7992200645711386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7621282776558576</v>
+        <v>0.7613370590103479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.831936144364928</v>
+        <v>0.8334753743461195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>607</v>
@@ -8316,19 +8316,19 @@
         <v>361537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>349526</v>
+        <v>349617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>371353</v>
+        <v>371839</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8351912226953849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8074446763804181</v>
+        <v>0.8076550452707869</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8578690071582054</v>
+        <v>0.8589908134314864</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>36949</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29160</v>
+        <v>29695</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46913</v>
+        <v>47564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.136492213520454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1077172229408613</v>
+        <v>0.1096939904607603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1732974685960007</v>
+        <v>0.1757021323824048</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>100</v>
@@ -8441,19 +8441,19 @@
         <v>41796</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33279</v>
+        <v>34748</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50297</v>
+        <v>50627</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1584692465764616</v>
+        <v>0.1584692465764615</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1261749734233874</v>
+        <v>0.1317446177859479</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1907003671243071</v>
+        <v>0.1919497311196589</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -8462,19 +8462,19 @@
         <v>78746</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67427</v>
+        <v>67346</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91231</v>
+        <v>91635</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.147337699579758</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1261593908464217</v>
+        <v>0.1260082149096958</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1706989973399883</v>
+        <v>0.1714540357660465</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>233758</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223794</v>
+        <v>223143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241547</v>
+        <v>241012</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.863507786479546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8267025314039993</v>
+        <v>0.8242978676175954</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8922827770591386</v>
+        <v>0.8903060095392396</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -8512,19 +8512,19 @@
         <v>221954</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213453</v>
+        <v>213123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230471</v>
+        <v>229002</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8415307534235386</v>
+        <v>0.8415307534235383</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8092996328756926</v>
+        <v>0.8080502688803413</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8738250265766127</v>
+        <v>0.868255382214052</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>659</v>
@@ -8533,19 +8533,19 @@
         <v>455711</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>443226</v>
+        <v>442822</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>467030</v>
+        <v>467111</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.852662300420242</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8293010026600117</v>
+        <v>0.8285459642339534</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8738406091535783</v>
+        <v>0.8739917850903041</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>42305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31468</v>
+        <v>29741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56842</v>
+        <v>54374</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05878267064817585</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04372447562372404</v>
+        <v>0.04132523755956227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07898145080158742</v>
+        <v>0.07555268748823551</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -8658,19 +8658,19 @@
         <v>68706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57223</v>
+        <v>56032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84267</v>
+        <v>82040</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08899037496611656</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07411743779200904</v>
+        <v>0.07257558585939236</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1091461601306906</v>
+        <v>0.1062612125648891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -8679,19 +8679,19 @@
         <v>111011</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93958</v>
+        <v>93931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131849</v>
+        <v>130587</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07441676436859626</v>
+        <v>0.07441676436859627</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06298550765840381</v>
+        <v>0.06296698622327279</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08838595601777385</v>
+        <v>0.08753996162523008</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>677382</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>662845</v>
+        <v>665313</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>688219</v>
+        <v>689946</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9412173293518242</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9210185491984129</v>
+        <v>0.9244473125117644</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9562755243762759</v>
+        <v>0.9586747624404383</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>863</v>
@@ -8729,19 +8729,19 @@
         <v>703351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>687790</v>
+        <v>690017</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>714834</v>
+        <v>716025</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9110096250338832</v>
+        <v>0.9110096250338835</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8908538398693093</v>
+        <v>0.8937387874351109</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9258825622079908</v>
+        <v>0.9274244141406077</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1420</v>
@@ -8750,19 +8750,19 @@
         <v>1380733</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1359895</v>
+        <v>1361157</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1397786</v>
+        <v>1397813</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9255832356314039</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9116140439822263</v>
+        <v>0.91246003837477</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9370144923415963</v>
+        <v>0.9370330137767275</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>27949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19408</v>
+        <v>19214</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39609</v>
+        <v>38179</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03502063664430579</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02431906133708384</v>
+        <v>0.02407597348421417</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04963065497865717</v>
+        <v>0.04783890242494246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -8875,19 +8875,19 @@
         <v>25469</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18097</v>
+        <v>17599</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34372</v>
+        <v>33702</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0306858080135221</v>
+        <v>0.03068580801352211</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02180366485007532</v>
+        <v>0.02120302537938408</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04141226136922303</v>
+        <v>0.0406045279588714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -8896,19 +8896,19 @@
         <v>53418</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41883</v>
+        <v>41541</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67420</v>
+        <v>66496</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03281070984665995</v>
+        <v>0.03281070984665996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02572522704635601</v>
+        <v>0.02551536531540739</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04141054902374378</v>
+        <v>0.04084322113668885</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>770123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>758463</v>
+        <v>759893</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>778664</v>
+        <v>778858</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9649793633556941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9503693450213431</v>
+        <v>0.9521610975750578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9756809386629162</v>
+        <v>0.9759240265157858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1021</v>
@@ -8946,19 +8946,19 @@
         <v>804537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>795634</v>
+        <v>796304</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811909</v>
+        <v>812407</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9693141919864781</v>
+        <v>0.9693141919864782</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9585877386307771</v>
+        <v>0.9593954720411286</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9781963351499251</v>
+        <v>0.978796974620616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1750</v>
@@ -8967,19 +8967,19 @@
         <v>1574660</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1560658</v>
+        <v>1561582</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1586195</v>
+        <v>1586537</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.96718929015334</v>
+        <v>0.9671892901533402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.958589450976256</v>
+        <v>0.9591567788633112</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9742747729536437</v>
+        <v>0.9744846346845928</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>220373</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>196501</v>
+        <v>196367</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>248836</v>
+        <v>248620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06239737427436211</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05563812536198146</v>
+        <v>0.05560020018748175</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07045631766228219</v>
+        <v>0.07039514376320433</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>597</v>
@@ -9092,19 +9092,19 @@
         <v>312720</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>286777</v>
+        <v>288354</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>338280</v>
+        <v>339168</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08377960606340872</v>
+        <v>0.08377960606340873</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07682931801883078</v>
+        <v>0.0772519380729757</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09062743622736577</v>
+        <v>0.09086544813709552</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>890</v>
@@ -9113,19 +9113,19 @@
         <v>533093</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>496886</v>
+        <v>494197</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>568685</v>
+        <v>568533</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0733841125412646</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06839998696588194</v>
+        <v>0.06802977430701894</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07828365837467685</v>
+        <v>0.07826262670632074</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3311402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3282939</v>
+        <v>3283155</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3335274</v>
+        <v>3335408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9376026257256379</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9295436823377178</v>
+        <v>0.9296048562367957</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9443618746380186</v>
+        <v>0.9443997998125182</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4763</v>
@@ -9163,19 +9163,19 @@
         <v>3419925</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3394365</v>
+        <v>3393477</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3445868</v>
+        <v>3444291</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9162203939365912</v>
+        <v>0.9162203939365913</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9093725637726342</v>
+        <v>0.9091345518629047</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9231706819811692</v>
+        <v>0.9227480619270243</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7845</v>
@@ -9184,19 +9184,19 @@
         <v>6731326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6695734</v>
+        <v>6695886</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6767533</v>
+        <v>6770222</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9266158874587354</v>
+        <v>0.9266158874587355</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9217163416253229</v>
+        <v>0.9217373732936794</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9316000130341179</v>
+        <v>0.931970225692981</v>
       </c>
     </row>
     <row r="30">
